--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ahsg-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ahsg-Insr.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.444833</v>
+        <v>7.655977</v>
       </c>
       <c r="N2">
-        <v>55.33449900000001</v>
+        <v>22.967931</v>
       </c>
       <c r="O2">
-        <v>0.529296397589589</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="P2">
-        <v>0.5292963975895891</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="Q2">
-        <v>84.27759604344301</v>
+        <v>34.981468085067</v>
       </c>
       <c r="R2">
-        <v>758.4983643909871</v>
+        <v>314.833212765603</v>
       </c>
       <c r="S2">
-        <v>0.529296397589589</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="T2">
-        <v>0.5292963975895891</v>
+        <v>0.2994795900616967</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>24.086304</v>
       </c>
       <c r="O3">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="P3">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="Q3">
         <v>36.684813911328</v>
@@ -632,10 +632,10 @@
         <v>330.163325201952</v>
       </c>
       <c r="S3">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="T3">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.374233</v>
+        <v>9.879524666666667</v>
       </c>
       <c r="N4">
-        <v>25.122699</v>
+        <v>29.638574</v>
       </c>
       <c r="O4">
-        <v>0.2403085655194523</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="P4">
-        <v>0.2403085655194524</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="Q4">
-        <v>38.263302570843</v>
+        <v>45.141237600718</v>
       </c>
       <c r="R4">
-        <v>344.369723137587</v>
+        <v>406.271138406462</v>
       </c>
       <c r="S4">
-        <v>0.2403085655194523</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="T4">
-        <v>0.2403085655194524</v>
+        <v>0.386458318406358</v>
       </c>
     </row>
   </sheetData>
